--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 4 (26, 33, 36, 49, 2)/MDD 8 (38, 9, 49, 26, 34)/ANN_128nodes_Uniform0.05Virtual_Control(26, 33, 36, 49, 2)_MDD(38, 9, 49, 26, 34)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 4 (26, 33, 36, 49, 2)/MDD 8 (38, 9, 49, 26, 34)/ANN_128nodes_Uniform0.05Virtual_Control(26, 33, 36, 49, 2)_MDD(38, 9, 49, 26, 34)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999999407890825</v>
+        <v>0.9999999999796192</v>
       </c>
       <c r="E2">
-        <v>0.9999999407890825</v>
+        <v>0.9999999999796192</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9633438271843244</v>
+        <v>0.999999842234544</v>
       </c>
       <c r="E3">
-        <v>0.9633438271843244</v>
+        <v>0.999999842234544</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9999686234191392</v>
+        <v>0.9999853713930698</v>
       </c>
       <c r="E4">
-        <v>0.9999686234191392</v>
+        <v>0.9999853713930698</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.859409697111209E-10</v>
+        <v>1.406195085334133E-06</v>
       </c>
       <c r="E5">
-        <v>1.859409697111209E-10</v>
+        <v>1.406195085334133E-06</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>3.381352114415637E-14</v>
+        <v>3.113695372588512E-20</v>
       </c>
       <c r="E6">
-        <v>3.381352114415637E-14</v>
+        <v>3.113695372588512E-20</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9869084189254141</v>
+        <v>0.9949117536305089</v>
       </c>
       <c r="E7">
-        <v>0.01309158107458586</v>
+        <v>0.005088246369491123</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999071414825844</v>
+        <v>0.9999998971848428</v>
       </c>
       <c r="E8">
-        <v>9.285851741558382E-05</v>
+        <v>1.028151571658142E-07</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0006642903153365125</v>
+        <v>9.83694951238565E-05</v>
       </c>
       <c r="E9">
-        <v>0.9993357096846635</v>
+        <v>0.9999016305048761</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.325963919737794E-05</v>
+        <v>1.363613759349818E-05</v>
       </c>
       <c r="E11">
-        <v>0.9999367403608026</v>
+        <v>0.9999863638624065</v>
       </c>
       <c r="F11">
-        <v>4.731610774993896</v>
+        <v>7.184577941894531</v>
       </c>
       <c r="G11">
         <v>0.5</v>
